--- a/set_datos.xlsx
+++ b/set_datos.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santinobanana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9845BD-0798-4051-B6B6-1D0A1FC31EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB8822C-19EF-4757-A56D-17DBFC81FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{697A5128-6904-46DA-BF5F-8901020213D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{697A5128-6904-46DA-BF5F-8901020213D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="131">
   <si>
     <t>C1</t>
   </si>
@@ -88,30 +91,6 @@
     <t>C15</t>
   </si>
   <si>
-    <t>20.6546856 -103.3599066</t>
-  </si>
-  <si>
-    <t>20.6856283 -103.3603916</t>
-  </si>
-  <si>
-    <t>20.6037028 -103.2340488</t>
-  </si>
-  <si>
-    <t>21.3707639 -101.9781741</t>
-  </si>
-  <si>
-    <t>22.7757058 -102.5549564</t>
-  </si>
-  <si>
-    <t>26.7549602 -100.1159915</t>
-  </si>
-  <si>
-    <t>25.2144143 -111.6296634</t>
-  </si>
-  <si>
-    <t>15.8446086 -89.8489378</t>
-  </si>
-  <si>
     <t>C16</t>
   </si>
   <si>
@@ -322,9 +301,6 @@
     <t>23.8546621, -108.6009987</t>
   </si>
   <si>
-    <t>22.1098692, -114.3218962</t>
-  </si>
-  <si>
     <t>31.5102666, -109.8614469</t>
   </si>
   <si>
@@ -389,6 +365,75 @@
   </si>
   <si>
     <t>C43</t>
+  </si>
+  <si>
+    <t>-34.567, -56.789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.345, 67.890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -23.456, 45.678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.123, -12.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.012, -34.567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -56.789, 12.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67.890, -23.456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -45.678, 0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.345, 89.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -34.567, -56.789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.678, 67.890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -12.345, -23.456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.123, 89.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -56.789, -34.567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67.890, 12.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.012, 0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -34.567, 67.890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.345, -23.456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -56.789, 45.678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.123, -34.567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67.890, 89.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -23.456, 12.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.678, 0.123</t>
   </si>
 </sst>
 </file>
@@ -745,14 +790,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DFC37B-7156-4323-8050-945060E21D99}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -779,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -790,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -801,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -812,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -823,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>-20</v>
@@ -834,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>0.8</v>
@@ -845,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -856,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -867,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -875,6 +920,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -882,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE638EC7-9B47-4EF4-A75D-9FE995007683}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -915,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -926,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -937,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -948,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -959,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -970,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>-20</v>
@@ -981,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0.8</v>
@@ -992,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1003,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1014,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1025,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1036,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1047,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1058,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -1066,10 +1112,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1077,10 +1123,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -1088,10 +1134,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1099,10 +1145,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1110,10 +1156,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1121,10 +1167,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1132,10 +1178,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1143,10 +1189,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1154,10 +1200,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1165,10 +1211,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1176,10 +1222,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1187,10 +1233,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1198,10 +1244,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1209,10 +1255,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1220,10 +1266,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1231,10 +1277,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1242,10 +1288,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1253,10 +1299,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1264,10 +1310,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1275,10 +1321,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1286,10 +1332,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1297,10 +1343,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1308,10 +1354,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1319,10 +1365,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1330,10 +1376,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1341,10 +1387,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1352,10 +1398,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -1363,10 +1409,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -1382,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D3951E-1CBE-4C53-A815-A9CE4A6181A5}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C14" sqref="C12:C14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1415,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1426,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1437,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1448,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1459,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1470,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1481,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1492,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1503,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>125</v>
@@ -1514,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -1525,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>-20</v>
@@ -1536,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>0.8</v>
@@ -1547,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1558,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1566,10 +1612,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1577,10 +1623,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1588,10 +1634,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1599,10 +1645,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1610,10 +1656,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1621,10 +1667,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1632,10 +1678,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1643,13 +1689,1716 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9680D481-6E8B-4A87-B6E2-6B298D2CD960}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7686F78E-5E8E-4698-98CC-2E3FDB03B85E}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84935178-B8B6-4C1B-A260-DC6C49CD2501}">
+  <dimension ref="A1:C96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A65" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>115</v>
       </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ref="A66:A96" si="1">ROW(A66)</f>
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/set_datos.xlsx
+++ b/set_datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santinobanana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santinobanana\Desktop\Quinto Semestre\analisis de algoritmos\proyecto_analisis_algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB8822C-19EF-4757-A56D-17DBFC81FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E9F07-D642-4121-91E6-0606228CF156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{697A5128-6904-46DA-BF5F-8901020213D2}"/>
+    <workbookView xWindow="15240" yWindow="3195" windowWidth="9570" windowHeight="7965" activeTab="6" xr2:uid="{697A5128-6904-46DA-BF5F-8901020213D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="142">
   <si>
     <t>C1</t>
   </si>
@@ -434,6 +435,39 @@
   </si>
   <si>
     <t xml:space="preserve"> 45.678, 0.123</t>
+  </si>
+  <si>
+    <t>17.2787211, -94.8154022</t>
+  </si>
+  <si>
+    <t>26.6390453, -105.6259490</t>
+  </si>
+  <si>
+    <t>25.6924559, -100.4404022</t>
+  </si>
+  <si>
+    <t>27.6557318, -113.6239959</t>
+  </si>
+  <si>
+    <t>24.2584158, -98.6825897</t>
+  </si>
+  <si>
+    <t>19.0701706, -100.7920284</t>
+  </si>
+  <si>
+    <t>27.7939917, -105.0107784</t>
+  </si>
+  <si>
+    <t>24.8800596, -98.9463253</t>
+  </si>
+  <si>
+    <t>30.1010366, -110.7236690</t>
+  </si>
+  <si>
+    <t>19.0918311, -96.2546749</t>
+  </si>
+  <si>
+    <t>total de peso</t>
   </si>
 </sst>
 </file>
@@ -791,7 +825,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE638EC7-9B47-4EF4-A75D-9FE995007683}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:C44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +986,7 @@
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5</v>
       </c>
     </row>
@@ -963,7 +997,7 @@
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -974,7 +1008,7 @@
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
     </row>
@@ -985,7 +1019,7 @@
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -996,7 +1030,7 @@
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1007,7 +1041,7 @@
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>35</v>
       </c>
     </row>
@@ -1018,7 +1052,7 @@
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>-20</v>
       </c>
     </row>
@@ -1029,7 +1063,7 @@
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.8</v>
       </c>
     </row>
@@ -1040,7 +1074,7 @@
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1051,7 +1085,7 @@
       <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1062,7 +1096,7 @@
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1073,7 +1107,7 @@
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1084,7 +1118,7 @@
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1095,7 +1129,7 @@
       <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1106,7 +1140,7 @@
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1117,7 +1151,7 @@
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1128,7 +1162,7 @@
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1139,7 +1173,7 @@
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1150,7 +1184,7 @@
       <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1161,7 +1195,7 @@
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1172,7 +1206,7 @@
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1183,7 +1217,7 @@
       <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1194,7 +1228,7 @@
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1205,7 +1239,7 @@
       <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1216,7 +1250,7 @@
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1227,7 +1261,7 @@
       <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1238,7 +1272,7 @@
       <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1249,7 +1283,7 @@
       <c r="B29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1260,7 +1294,7 @@
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1271,7 +1305,7 @@
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1282,7 +1316,7 @@
       <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1327,7 @@
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1304,7 +1338,7 @@
       <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1315,7 +1349,7 @@
       <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1326,7 +1360,7 @@
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1337,7 +1371,7 @@
       <c r="B37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1348,7 +1382,7 @@
       <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1359,7 +1393,7 @@
       <c r="B39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1370,7 +1404,7 @@
       <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1381,7 +1415,7 @@
       <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1392,7 +1426,7 @@
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1403,7 +1437,7 @@
       <c r="B43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1414,7 +1448,7 @@
       <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1429,7 +1463,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,18 +1475,21 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1460,10 +1497,10 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1471,10 +1508,10 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1482,10 +1519,10 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1493,10 +1530,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1504,10 +1541,10 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1515,10 +1552,10 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1526,10 +1563,10 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1537,10 +1574,10 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1548,10 +1585,10 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>125</v>
       </c>
     </row>
@@ -1559,10 +1596,10 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>35</v>
       </c>
     </row>
@@ -1570,10 +1607,10 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>-20</v>
       </c>
     </row>
@@ -1581,10 +1618,10 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.8</v>
       </c>
     </row>
@@ -1592,10 +1629,10 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1603,10 +1640,10 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1614,10 +1651,10 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1625,10 +1662,10 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1636,10 +1673,10 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1647,10 +1684,10 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1658,10 +1695,10 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1672,7 +1709,7 @@
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1683,7 +1720,7 @@
       <c r="B23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1694,7 +1731,7 @@
       <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1708,10 +1745,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1728,7 +1768,7 @@
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1739,7 +1779,7 @@
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1750,7 +1790,7 @@
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1761,7 +1801,7 @@
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1793,7 +1833,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1848,7 @@
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1819,7 +1859,7 @@
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1830,7 +1870,7 @@
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1841,7 +1881,7 @@
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1852,7 +1892,7 @@
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1863,7 +1903,7 @@
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1874,7 +1914,7 @@
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1885,7 +1925,7 @@
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1896,7 +1936,7 @@
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1907,7 +1947,7 @@
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1918,7 +1958,7 @@
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1929,7 +1969,7 @@
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1940,7 +1980,7 @@
       <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1951,7 +1991,7 @@
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1962,7 +2002,7 @@
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1973,7 +2013,7 @@
       <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1984,7 +2024,7 @@
       <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1995,7 +2035,7 @@
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2006,7 +2046,7 @@
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2017,7 +2057,7 @@
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2028,7 +2068,7 @@
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2039,7 +2079,7 @@
       <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2050,7 +2090,7 @@
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2061,7 +2101,7 @@
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2072,7 +2112,7 @@
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2083,7 +2123,7 @@
       <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2094,7 +2134,7 @@
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2105,7 +2145,7 @@
       <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2116,7 +2156,7 @@
       <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2127,7 +2167,7 @@
       <c r="B30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2138,7 +2178,7 @@
       <c r="B31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2149,7 +2189,7 @@
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2160,7 +2200,7 @@
       <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2171,7 +2211,7 @@
       <c r="B34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2182,7 +2222,7 @@
       <c r="B35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2193,7 +2233,7 @@
       <c r="B36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>6</v>
       </c>
     </row>
@@ -2204,7 +2244,7 @@
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2215,7 +2255,7 @@
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>7</v>
       </c>
     </row>
@@ -2237,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84935178-B8B6-4C1B-A260-DC6C49CD2501}">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,10 +2294,10 @@
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2266,10 +2306,10 @@
         <f t="shared" ref="A2:A65" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2278,10 +2318,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>12</v>
       </c>
     </row>
@@ -2290,10 +2330,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>7</v>
       </c>
     </row>
@@ -2302,10 +2342,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2314,10 +2354,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>6</v>
       </c>
     </row>
@@ -2326,10 +2366,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2338,10 +2378,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>15</v>
       </c>
     </row>
@@ -2350,10 +2390,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2362,10 +2402,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>13</v>
       </c>
     </row>
@@ -2374,10 +2414,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2386,10 +2426,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2398,10 +2438,10 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>9</v>
       </c>
     </row>
@@ -2410,10 +2450,10 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>14</v>
       </c>
     </row>
@@ -2422,10 +2462,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2434,10 +2474,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2446,10 +2486,10 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2458,10 +2498,10 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>12</v>
       </c>
     </row>
@@ -2470,10 +2510,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>7</v>
       </c>
     </row>
@@ -2482,10 +2522,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2494,10 +2534,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>6</v>
       </c>
     </row>
@@ -2506,10 +2546,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2518,10 +2558,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>15</v>
       </c>
     </row>
@@ -2530,10 +2570,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2542,10 +2582,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>13</v>
       </c>
     </row>
@@ -2554,10 +2594,10 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2566,10 +2606,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2578,10 +2618,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>9</v>
       </c>
     </row>
@@ -2590,10 +2630,10 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>14</v>
       </c>
     </row>
@@ -2602,10 +2642,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2614,10 +2654,10 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2626,10 +2666,10 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2638,10 +2678,10 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>12</v>
       </c>
     </row>
@@ -2650,10 +2690,10 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>7</v>
       </c>
     </row>
@@ -2662,10 +2702,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2674,10 +2714,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>6</v>
       </c>
     </row>
@@ -2686,10 +2726,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2698,10 +2738,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>15</v>
       </c>
     </row>
@@ -2710,10 +2750,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2722,10 +2762,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>13</v>
       </c>
     </row>
@@ -2734,10 +2774,10 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2746,10 +2786,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2758,10 +2798,10 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>9</v>
       </c>
     </row>
@@ -2770,10 +2810,10 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>14</v>
       </c>
     </row>
@@ -2782,10 +2822,10 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2794,10 +2834,10 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2806,10 +2846,10 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2818,10 +2858,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>12</v>
       </c>
     </row>
@@ -2830,10 +2870,10 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>7</v>
       </c>
     </row>
@@ -2842,10 +2882,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2854,10 +2894,10 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>6</v>
       </c>
     </row>
@@ -2866,10 +2906,10 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2878,10 +2918,10 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>15</v>
       </c>
     </row>
@@ -2890,10 +2930,10 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2902,10 +2942,10 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>13</v>
       </c>
     </row>
@@ -2914,10 +2954,10 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2926,10 +2966,10 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2938,10 +2978,10 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>9</v>
       </c>
     </row>
@@ -2950,10 +2990,10 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>14</v>
       </c>
     </row>
@@ -2962,10 +3002,10 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2974,10 +3014,10 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2986,10 +3026,10 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2998,10 +3038,10 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3010,10 +3050,10 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>7</v>
       </c>
     </row>
@@ -3022,10 +3062,10 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3034,10 +3074,10 @@
         <f t="shared" ref="A66:A96" si="1">ROW(A66)</f>
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>6</v>
       </c>
     </row>
@@ -3046,10 +3086,10 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>11</v>
       </c>
     </row>
@@ -3058,10 +3098,10 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>15</v>
       </c>
     </row>
@@ -3070,10 +3110,10 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3082,10 +3122,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>13</v>
       </c>
     </row>
@@ -3094,10 +3134,10 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3106,10 +3146,10 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>10</v>
       </c>
     </row>
@@ -3118,10 +3158,10 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>9</v>
       </c>
     </row>
@@ -3130,10 +3170,10 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>14</v>
       </c>
     </row>
@@ -3142,10 +3182,10 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3154,10 +3194,10 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>8</v>
       </c>
     </row>
@@ -3166,10 +3206,10 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3178,10 +3218,10 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3190,10 +3230,10 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>7</v>
       </c>
     </row>
@@ -3202,10 +3242,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3214,10 +3254,10 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>6</v>
       </c>
     </row>
@@ -3226,10 +3266,10 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>11</v>
       </c>
     </row>
@@ -3238,10 +3278,10 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>15</v>
       </c>
     </row>
@@ -3250,10 +3290,10 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3262,10 +3302,10 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>13</v>
       </c>
     </row>
@@ -3274,10 +3314,10 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3286,10 +3326,10 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>10</v>
       </c>
     </row>
@@ -3298,10 +3338,10 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>9</v>
       </c>
     </row>
@@ -3310,10 +3350,10 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>14</v>
       </c>
     </row>
@@ -3322,10 +3362,10 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3334,10 +3374,10 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3346,10 +3386,10 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3358,10 +3398,10 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3370,10 +3410,10 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3382,10 +3422,10 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>8</v>
       </c>
     </row>
@@ -3394,11 +3434,146 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5403A0B-C876-4C35-A0DB-1BDBD4B8AFA9}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
